--- a/data/trans_dic/P21D_4_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Clase-trans_dic.xlsx
@@ -639,11 +639,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01855318961844911</v>
+        <v>0.01531102452410184</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.008537276092029759</v>
+        <v>0.007598173041347203</v>
       </c>
     </row>
     <row r="10">
@@ -690,11 +690,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0284512927465442</v>
+        <v>0.0258789050324463</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01874489192778344</v>
+        <v>0.01758082788769631</v>
       </c>
     </row>
     <row r="13">
@@ -715,7 +715,7 @@
         <v>0.01184667470185617</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.007106252393707847</v>
+        <v>0.007106252393707846</v>
       </c>
     </row>
     <row r="14">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004823534066568287</v>
+        <v>0.004887603215637898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00334895695677637</v>
+        <v>0.003621111780461118</v>
       </c>
     </row>
     <row r="15">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01356726201126724</v>
+        <v>0.01426887462752819</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02320691032163413</v>
+        <v>0.02325415310964853</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01370999357005555</v>
+        <v>0.01390151646862925</v>
       </c>
     </row>
     <row r="16">
@@ -782,10 +782,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.006043706152798854</v>
+        <v>0.006430737502676752</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003227856868905454</v>
+        <v>0.003116668906973823</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +797,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.02550202261246668</v>
+        <v>0.02638502484205428</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01478894952289971</v>
+        <v>0.01554861617253356</v>
       </c>
     </row>
     <row r="19">
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.005902650626553585</v>
+        <v>0.005902650626553583</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.004433829777936522</v>
+        <v>0.004433829777936521</v>
       </c>
     </row>
     <row r="20">
@@ -833,10 +833,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.001725292200695533</v>
+        <v>0.00171284745638716</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.001288856463062151</v>
+        <v>0.001222156266378608</v>
       </c>
     </row>
     <row r="21">
@@ -848,10 +848,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.01551068515220049</v>
+        <v>0.01383490439340343</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0107193556308187</v>
+        <v>0.01061659246472468</v>
       </c>
     </row>
     <row r="22">
@@ -869,7 +869,7 @@
         <v>0.002218872468394059</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.007234221702348605</v>
+        <v>0.007234221702348606</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.00482270987091086</v>
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0007444555941837388</v>
+        <v>0.0006588425457248004</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004350234605200268</v>
+        <v>0.00464965949366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003188275855571152</v>
+        <v>0.003143646980861841</v>
       </c>
     </row>
     <row r="24">
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.006206364299805237</v>
+        <v>0.005313311995393756</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01114342243496137</v>
+        <v>0.01157206198954006</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.007331647956174637</v>
+        <v>0.007309317039484326</v>
       </c>
     </row>
     <row r="25">
@@ -1125,11 +1125,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3654</v>
+        <v>3015</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>3360</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="12">
@@ -1193,11 +1193,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5373</v>
+        <v>4887</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5163</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="16">
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1865</v>
+        <v>1890</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3009</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="19">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6944</v>
+        <v>7303</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8973</v>
+        <v>8992</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12318</v>
+        <v>12491</v>
       </c>
     </row>
     <row r="20">
@@ -1319,10 +1319,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>2344</v>
+        <v>2494</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2111</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="23">
@@ -1334,10 +1334,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>9892</v>
+        <v>10234</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9670</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="24">
@@ -1387,10 +1387,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>608</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27">
@@ -1402,10 +1402,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>5499</v>
+        <v>4904</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5059</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="28">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1136</v>
+        <v>1005</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7165</v>
+        <v>7659</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>10115</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="31">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9468</v>
+        <v>8105</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18354</v>
+        <v>19061</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23260</v>
+        <v>23189</v>
       </c>
     </row>
     <row r="32">
